--- a/data/trans_dic/P28$padre_2012-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P28$padre_2012-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,13; 66,66</t>
+          <t>56,48; 66,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,74; 64,85</t>
+          <t>53,33; 65,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,97; 64,63</t>
+          <t>56,83; 64,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,59; 67,05</t>
+          <t>56,4; 66,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,89; 63,74</t>
+          <t>52,15; 63,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,91; 64,02</t>
+          <t>56,02; 63,8</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,77; 70,37</t>
+          <t>62,66; 70,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,56; 66,51</t>
+          <t>53,17; 66,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,33; 68,22</t>
+          <t>61,5; 67,97</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,98; 68,94</t>
+          <t>63,11; 69,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,17; 66,63</t>
+          <t>59,14; 66,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,67; 67,15</t>
+          <t>62,32; 67,04</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,01; 69,78</t>
+          <t>61,5; 70,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,83; 68,45</t>
+          <t>60,74; 68,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,55; 68,24</t>
+          <t>62,06; 67,9</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,83; 44,63</t>
+          <t>31,91; 44,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,73; 65,96</t>
+          <t>60,05; 66,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,37; 60,79</t>
+          <t>55,19; 60,91</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,15; 64,79</t>
+          <t>61,0; 64,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>60,42; 63,87</t>
+          <t>60,56; 63,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,27; 63,72</t>
+          <t>61,33; 63,77</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, fumaba su padre en el ambiente donde se crió</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>260551</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>177028</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>437578</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>237650; 280384</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>160190; 195655</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>409803; 466246</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>247602</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>190179</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>437781</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>226980; 268076</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>171055; 208047</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>409162; 466029</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>408669</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>149786</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>558455</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>382904; 432133</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>132769; 165532</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>529404; 585115</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>729295</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>468406</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1197701</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>696139; 762692</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>441998; 495957</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1153172; 1240624</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>324768</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>465849</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>790618</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>303768; 346238</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>438064; 493097</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>754129; 825143</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>100352</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>656799</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>757151</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>83283; 116130</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>626867; 689473</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>720130; 794848</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2071237</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2108047</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4179284</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2008265; 2128192</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2053395; 2164115</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4098913; 4261405</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>